--- a/02-MPElectricSystemsHu/Metrics Comparison.xlsx
+++ b/02-MPElectricSystemsHu/Metrics Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FrontEndLearning\02-MPElectricSystemsHu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF81F0E-8ED9-45BD-8AFA-7565B17D1662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7ECDA-E5B3-44FC-93D0-CDE44BBA5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33523CF1-5484-43FC-87F8-FCB7A8F3CAE9}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>349059073</v>
       </c>
       <c r="C3" s="1">
-        <v>350920</v>
+        <v>7949527</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -518,6 +518,9 @@
       <c r="B7">
         <v>42</v>
       </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -526,6 +529,9 @@
       <c r="B8">
         <v>85</v>
       </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -534,6 +540,9 @@
       <c r="B9">
         <v>100</v>
       </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -542,6 +551,9 @@
       <c r="B10">
         <v>100</v>
       </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -555,6 +567,9 @@
       <c r="B12">
         <v>93</v>
       </c>
+      <c r="C12">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -563,6 +578,9 @@
       <c r="B13">
         <v>81</v>
       </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -571,12 +589,18 @@
       <c r="B14">
         <v>100</v>
       </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
         <v>100</v>
       </c>
     </row>

--- a/02-MPElectricSystemsHu/Metrics Comparison.xlsx
+++ b/02-MPElectricSystemsHu/Metrics Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FrontEndLearning\02-MPElectricSystemsHu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7ECDA-E5B3-44FC-93D0-CDE44BBA5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3052E-B2CD-4373-A5BB-2B02B68319FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33523CF1-5484-43FC-87F8-FCB7A8F3CAE9}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33523CF1-5484-43FC-87F8-FCB7A8F3CAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics Comparison" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,9 @@
       <c r="C3" s="1">
         <v>7949527</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>16800000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -521,6 +523,9 @@
       <c r="C7">
         <v>86</v>
       </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -532,6 +537,9 @@
       <c r="C8">
         <v>96</v>
       </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -543,6 +551,9 @@
       <c r="C9">
         <v>100</v>
       </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -554,6 +565,9 @@
       <c r="C10">
         <v>100</v>
       </c>
+      <c r="D10">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -570,6 +584,9 @@
       <c r="C12">
         <v>95</v>
       </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -581,6 +598,9 @@
       <c r="C13">
         <v>96</v>
       </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -592,6 +612,9 @@
       <c r="C14">
         <v>100</v>
       </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -602,6 +625,9 @@
       </c>
       <c r="C15">
         <v>100</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
